--- a/biology/Zoologie/Ardes_(race_ovine)/Ardes_(race_ovine).xlsx
+++ b/biology/Zoologie/Ardes_(race_ovine)/Ardes_(race_ovine).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-L'ardes est une race ovine originaire d'Auvergne (le village d'Ardes lui a donné son nom). Son effectif actuel serait aujourd'hui très réduit et elle est parfois considérée comme éteinte[1]. Présents en Provence-Alpes-Côte d'Azur et en Auvergne, les ardes étaient appréciés pour leur rusticité et leur adaptation à la montagne. Dans la seconde moitié du XXe siècle, les éleveurs l'ont délaissé au profit de la limousine, autre race locale[2].
+L'ardes est une race ovine originaire d'Auvergne (le village d'Ardes lui a donné son nom). Son effectif actuel serait aujourd'hui très réduit et elle est parfois considérée comme éteinte. Présents en Provence-Alpes-Côte d'Azur et en Auvergne, les ardes étaient appréciés pour leur rusticité et leur adaptation à la montagne. Dans la seconde moitié du XXe siècle, les éleveurs l'ont délaissé au profit de la limousine, autre race locale.
 </t>
         </is>
       </c>
